--- a/打包/RND Regression Rusults_20250115.xlsx
+++ b/打包/RND Regression Rusults_20250115.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011436AD-E7DC-481E-A3CA-9A7872A0E1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB67FF-11FE-44D6-AE7F-2FAD967192D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBF08D5D-1F4D-46C7-8EA0-40B904A3BBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="預期日報酬率_一個點" sheetId="1" r:id="rId1"/>
+    <sheet name="預期日報酬率_兩個點" sheetId="2" r:id="rId2"/>
+    <sheet name="預期週報酬率_一個點" sheetId="3" r:id="rId3"/>
+    <sheet name="預期週報酬率_兩個點" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="45">
   <si>
     <t>Mean</t>
   </si>
@@ -141,11 +144,117 @@
     <t>*</t>
   </si>
   <si>
-    <t>單因子迴歸分析：</t>
+    <t>Skewness_Coef</t>
+  </si>
+  <si>
+    <t>Skewness_p</t>
+  </si>
+  <si>
+    <t>Skewness_Sig</t>
+  </si>
+  <si>
+    <t>Variable_Coef</t>
+  </si>
+  <si>
+    <t>Variable_p</t>
+  </si>
+  <si>
+    <t>Variable_Sig</t>
+  </si>
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>Kurtosis_Coef</t>
+  </si>
+  <si>
+    <t>Kurtosis_p</t>
+  </si>
+  <si>
+    <t>Kurtosis_Sig</t>
+  </si>
+  <si>
+    <t>Std_Coef</t>
+  </si>
+  <si>
+    <t>Std_p</t>
+  </si>
+  <si>
+    <t>Std_Sig</t>
+  </si>
+  <si>
+    <t>T-4 Return</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二因子迴歸分析：</t>
+    <t>Skewness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>單因子迴歸分析：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二因子迴歸分析：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>三因子迴歸分析：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四因子迴歸分析：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自己找的模型：</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,9 +263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,13 +310,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="1"/>
       <charset val="136"/>
@@ -221,12 +323,104 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -235,29 +429,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,76 +815,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A871C48-1125-403F-8E0E-C6618BA261E0}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="14">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="14">
         <v>0.75</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>832</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-2.43553389720119E-4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3.35866541886536E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.5644608963848099E-2</v>
       </c>
       <c r="I3" s="4">
@@ -671,28 +900,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>832</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>35891.0208176167</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>14144.2250560589</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>25047.482639999002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>34274.110452302302</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>46035.601032658</v>
       </c>
       <c r="I4" s="4">
@@ -700,28 +929,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>832</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1784.3451762709201</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1422.5233848098801</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>821.39411158026701</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1463.6223370161899</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2291.7551898973202</v>
       </c>
       <c r="I5" s="4">
@@ -729,28 +958,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>832</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.40538948609564901</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>7.2139521662707704</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-12.506194916617799</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>-0.77117460276592997</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.24513331194642499</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1.0920754981994301</v>
       </c>
       <c r="I6" s="4">
@@ -758,28 +987,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>832</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>56.663665665035602</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1392.51236705888</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-140.82514970153801</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>-0.28143111696323903</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.6822177396853299</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>4.2421137107484101</v>
       </c>
       <c r="I7" s="4">
@@ -787,28 +1016,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>832</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>36972.094831730697</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>14057.615532425199</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>7860</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>25800.875</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>35687.35</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>46933.4</v>
       </c>
       <c r="I8" s="4">
@@ -816,28 +1045,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>832</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>46.989182692307601</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>22.4770213627882</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>26</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>49</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>68.25</v>
       </c>
       <c r="I9" s="4">
@@ -845,28 +1074,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>832</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-1.09233434708052E-4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3.3670728764471698E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.5644608963848099E-2</v>
       </c>
       <c r="I10" s="4">
@@ -874,28 +1103,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>832</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-5.1370134751633298E-5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3.3668987810085003E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.61125150779644E-2</v>
       </c>
       <c r="I11" s="4">
@@ -903,28 +1132,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>832</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>-1.11253910000984E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3.3671558224764399E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1.5976773762046498E-2</v>
       </c>
       <c r="I12" s="4">
@@ -932,215 +1161,5384 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>832</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>-2.6548029552194401E-4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>3.3690305407049398E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>-1.5693214716216802E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>-3.6226409783535001E-4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-8.6637894530932E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.2420596963119999E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.5061247687527796E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-2.4739049285859301E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.47608123044692202</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>6.1202055956821599E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.13518446456554E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7.6950042633492893E-2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.7640488414245601E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.1480006318567598E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.13789866603252501</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>2.6501910505596299E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-7.0669790667956103E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.1558715637809197E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.9942193130526596E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-2.3423987784203801E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.94621262030382003</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>5.4868320370493598E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-4.0168290837145203E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.24712701015442401</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>1.6134915887774299E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.7628458581852599E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.42610156154366002</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>7.6333172360920599E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9.2774188680449093E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.78931124824439702</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>8.6070500852963806E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>6.1719443207418498E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7.5193717185724596E-2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3.8092896698337301E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.0165270575812097E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.15103224117589401</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-7.9586752232932198E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.2852541488223199E-2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>9.9729605329905695E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6.0709315247808399E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8.0307266826444401E-2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-2.3046491446388501E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.50640555733814596</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4">
+        <v>4.2947767653859197E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.121099448588204</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.25947454170697998</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>-6.3130406171094694E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.55652450668751596</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4">
+        <v>4.17972084787632E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6.4000682818689494E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.4677982367772904E-2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7.2992328597725198E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.5171030351602198E-2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9.0849125318760403E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.1763139954901798E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7.5778183647705499E-2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-6.3456170141285599E-3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.85510249004414096</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4">
+        <v>3.8041465328831898E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.8072059111617599E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9.5559315779394693E-2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3.4675546920426403E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.31935298459802702</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4">
+        <v>4.9556854025061201E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6.23800485687429E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7.2352827739695397E-2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.97820826708598E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.39059725487526598</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4">
+        <v>4.6499640863311101E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6.14761810170509E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7.6539689325063304E-2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0038834477778501E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.77221021158698699</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4">
+        <v>3.8648115795636398E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6.02465755202332E-2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8.2082847552600299E-2</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>6.0621000770161602E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8.0202417590957004E-2</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="7">
+        <v>7.4377329559607297E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>8.4379625560117105E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.43623907384214</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>-3.59542126790455E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.73872116066240101</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>-7.8258294557429803E-2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2.6252046763904E-2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.0106056452763501E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.123222507556984</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.25156756127286301</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>-6.6077634855307696E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.53870489764977703</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>-2.38971088665281E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.49135426480982403</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
+        <v>4.7494428346554996E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.105487792591286</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.32617574314083297</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>-4.3883166599679203E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.68325656418177005</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>-7.17631619728131E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3.9189366399609203E-2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="4">
+        <v>9.2842526035328207E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.12200409028011</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.256648572405278</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>-6.3619005301454604E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.55381135868500697</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>-6.8227937645380498E-3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.84444266299079995</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
+        <v>4.2260509018794403E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.11074634631589</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.30488142685951602</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>-5.5523378362304199E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.60604694071911702</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>-3.33424241516872E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.33984156677807398</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
+        <v>5.2754569558671697E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.12325626058851701</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.251290913593189</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>-6.4313269604770906E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.54924773645206204</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>3.0046465574798599E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.38662872596999298</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="4">
+        <v>5.0812889552741504E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.12014692819480099</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.26376975506559402</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>-6.2002896387986103E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.564114676033036</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>9.2505063391655692E-3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.78990089931975005</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
+        <v>4.2651469974871398E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.122915997328869</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.25182418492024899</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>-6.6224406604815905E-2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.53689113439980396</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>6.0971614368139603E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>7.8625246943594906E-2</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7">
+        <v>7.8950243923862004E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8.2666074003323195E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.44784695382849399</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>-3.4320731958467798E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.751287280461715</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>6.3441679847783799E-3</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.86553533520975601</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>-8.0709046493723194E-2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>3.4112470586930899E-2</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.01403978050004E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.103385792982507</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.33729864270774901</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>-4.1137902098533997E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.70337018845006305</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>1.11426551200586E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.77496634982299895</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>-7.6875078646053793E-2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4.9561170207298201E-2</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="4">
+        <v>9.3822166709742697E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.12340222322668599</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.25149548795911503</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>-6.6148115797218104E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.53856089400878304</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>-2.3544285863217301E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.50880458923564598</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>-1.5918192257712699E-3</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.96440829976111297</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4">
+        <v>4.7518405329103298E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.112690162101914</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.296765029437702</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>-5.8412270786467102E-2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.58780115582172299</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <v>-2.5160858199137701E-2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.46905239662820303</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>-3.4281261211414303E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.32689770738205498</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4">
+        <v>5.9061606308683503E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.12522413015991901</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.244153561274849</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>-6.7095471431547496E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.53256841256124399</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>-2.28259386486785E-2</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.51133475955160801</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
+        <v>2.9210261676389699E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.40045474046641699</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4">
+        <v>5.6003826123321998E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.122421862983165</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.25523933182616698</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>-6.5118507882266502E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.54521734138705003</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>-2.3269904352133702E-2</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.50464877947984399</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>7.2343983589909198E-3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.83560525715164802</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4">
+        <v>4.8012977762193999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.124777754110897</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.24508627837177699</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>-6.8800169471607706E-2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.52165311256884195</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <v>-2.1267686812106001E-2</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.54013597692455895</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>6.0041878407047902E-2</v>
+      </c>
+      <c r="L59" s="6">
+        <v>8.3694568305319197E-2</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="7">
+        <v>8.3454058829799393E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6.2919039823620598E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6.8982713260715603E-2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1.29940134400429E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3">
+        <v>-7.4614665266187805E-2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3.11388386237436E-2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6">
+        <v>6.2554218051421195E-2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7.0519125181042003E-2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD33AF60-BC21-45A2-BCA6-53AF3BD5B4AA}">
+  <dimension ref="A1:N65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>832</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-2.43553389720119E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.35866541886536E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.16699764123151001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1.54872764908541E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-3.4338438748174999E-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.5644608963848099E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.13527871467525199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>832</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35891.0208176167</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14144.2250560589</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25047.482639999002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34274.110452302302</v>
+      </c>
+      <c r="H4" s="2">
+        <v>46035.601032658</v>
+      </c>
+      <c r="I4" s="8">
+        <v>72614.463836282099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>832</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1784.3451762709201</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1422.5233848098801</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>821.39411158026701</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1463.6223370161899</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2291.7551898973202</v>
+      </c>
+      <c r="I5" s="8">
+        <v>12224.7220880276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>832</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.40538948609564901</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.2139521662707704</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-12.506194916617799</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.77117460276592997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.24513331194642499</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.0920754981994301</v>
+      </c>
+      <c r="I6" s="8">
+        <v>193.70104411645301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>832</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.663665665035602</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1392.51236705888</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-140.82514970153801</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.28143111696323903</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.6822177396853299</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.2421137107484101</v>
+      </c>
+      <c r="I7" s="8">
+        <v>40084.749417957901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>832</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36972.094831730697</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14057.615532425199</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7860</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25800.875</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35687.35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>46933.4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>72597.399999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>832</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46.989182692307601</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.4770213627882</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2">
+        <v>68.25</v>
+      </c>
+      <c r="I9" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>832</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1.09233434708052E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.3670728764471698E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.16699764123151001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1.54872764908541E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-2.9144441537375001E-4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.5644608963848099E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.13527871467525199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>832</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-5.1370134751633298E-5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.3668987810085003E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.16699764123151001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1.52876260315292E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-2.9144441537375001E-4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.61125150779644E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.13527871467525199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>832</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1.11253910000984E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.3671558224764399E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.16699764123151001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1.52876260315292E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-3.4338438748174999E-4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.5976773762046498E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.13527871467525199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>832</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-2.6548029552194401E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.3690305407049398E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-0.16699764123151001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1.5693214716216802E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-3.6226409783535001E-4</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.5644608963848099E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.13527871467525199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>-8.6637894530932E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.2420596963119999E-2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="3">
+        <v>-7.0749092241598005E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.14525617317172E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>7.5061247687527796E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17">
-      <c r="A18" s="2" t="s">
+      <c r="E17" s="4">
+        <v>5.0054340530101202E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
-        <v>-2.4739049285859301E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.47608123044692202</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18">
-        <v>6.1202055956821599E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="3">
+        <v>-1.79496818339052E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.60536594580664105</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>3.2219107793873798E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>6.13518446456554E-2</v>
-      </c>
-      <c r="C19">
-        <v>7.6950042633492893E-2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="3">
+        <v>-2.4995421644211101E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.471788183810948</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>6.2477110317182805E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.9720336233436399E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.39219161434611</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>8.8329838582856801E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-7.0298197184893996E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.2770159249151098E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.9418365274465003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-2.20634210453381E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.94936300889613101</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>4.8679454822675396E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-4.0151351631839798E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.247611693952487</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>1.6121310378637199E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.6920494512131E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.43833297091399398</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>7.2471302477761202E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9.5693406610652208E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.78297273771366604</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>9.1572280687679503E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>6.1848196558325401E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7.4761505534771899E-2</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>3.7640488414245601E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17">
-      <c r="A20" s="2" t="s">
+      <c r="E26" s="7">
+        <v>3.8251994175173502E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-3.2673099047466903E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.34853878114554099</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-7.4132926214703895E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.3618339048448097E-2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6.0615151220182401E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-2.3222780597749199E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.506881967124443</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>-1.52503580577195E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.66292092462154395</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4">
+        <v>8.5420226778076802E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>5.1480006318567598E-2</v>
-      </c>
-      <c r="C20">
-        <v>0.13789866603252501</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20">
-        <v>2.6501910505596299E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17">
-      <c r="A21" s="2" t="s">
+      <c r="B32" s="3">
+        <v>-2.3229729435419299E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.50457208655108698</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>2.8269420302454201E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.416771936825097</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4">
+        <v>1.42081355843259E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
-        <v>-7.0669790667956103E-2</v>
-      </c>
-      <c r="C21">
-        <v>4.1558715637809197E-2</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B33" s="3">
+        <v>-3.07387920564876E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.37676399243276398</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>-7.2725732298354107E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.6714989206365303E-2</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>4.9942193130526596E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17">
-      <c r="A22" s="2" t="s">
+      <c r="H33" s="4">
+        <v>5.8808169378113898E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
-        <v>-2.3423987784203801E-3</v>
-      </c>
-      <c r="C22">
-        <v>0.94621262030382003</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="1">
-        <v>5.4868320370493598E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17">
-      <c r="A23" s="2" t="s">
+      <c r="B34" s="3">
+        <v>-2.4949218818145599E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.47352966686756498</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>-8.4967163800164899E-4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.98052287543771</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4">
+        <v>6.2549091036279104E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>-4.0168290837145203E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.24712701015442401</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23">
-        <v>1.6134915887774299E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17">
-      <c r="A24" s="2" t="s">
+      <c r="B35" s="3">
+        <v>-3.3894544786766498E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.337996596439462</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>-4.6621193090672801E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.18765014305095201</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4">
+        <v>2.7191123556634601E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
-        <v>2.7628458581852599E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.42610156154366002</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24">
-        <v>7.6333172360920599E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17">
-      <c r="A25" s="2" t="s">
+      <c r="B36" s="3">
+        <v>-2.3599119339598702E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.49765020098922202</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>2.5635088177971398E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.46131521320427599</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4">
+        <v>1.27997918893829E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>9.2774188680449093E-3</v>
-      </c>
-      <c r="C25">
-        <v>0.78931124824439702</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" s="1">
-        <v>8.6070500852963806E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17">
-      <c r="A26" s="2" t="s">
+      <c r="B37" s="3">
+        <v>-2.48117146121744E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.47538965178342102</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>9.0666072428114506E-3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.79421120751599905</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4">
+        <v>7.0694072179344704E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
-        <v>6.1719443207418498E-2</v>
-      </c>
-      <c r="C26">
-        <v>7.5193717185724596E-2</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B38" s="6">
+        <v>-2.2060872949040002E-2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.52532213831315</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>6.0783119503113901E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8.0355563558113297E-2</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
-        <v>3.8092896698337301E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="H38" s="7">
+        <v>4.3107471436574204E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-3.09939904395613E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.37506108053696002</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>2.5028224123736599E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.47170133547617499</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>-7.3014226072800101E-2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3.6621246326752101E-2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="4">
+        <v>6.6842453111302103E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-2.1394953799108399E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.541788901613939</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>2.84945729144215E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.41334675879934102</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>-1.56639276215827E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.654465724994855</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
+        <v>1.66280669618834E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-2.9133816036979999E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.403393588790805</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>2.3805600376116801E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.49409305885379001</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>-7.1230392279236804E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4.1211223095099302E-2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="4">
+        <v>6.4430906253692896E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-2.32530652871673E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.50496668455737503</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>2.8290307821355502E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.41720438242570701</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>4.5313921520754701E-4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.98962506854016596</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
+        <v>1.4210178518415601E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>-3.1968850334320197E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.36767375339185099</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>2.49021235291992E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.47554198579458301</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>-4.4681132239558399E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.20813671420878699</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
+        <v>3.3331822296609401E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>-2.18630202486364E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.53067516671503501</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>2.8028004182186299E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.42091322038571899</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>2.5368614386918901E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.46609984002863503</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="4">
+        <v>2.0624127621606801E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>-2.29972087694458E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.50918975075157802</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>2.8679073195370299E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.41068902003118202</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>1.02129409838138E-2</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.76911590206898295</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
+        <v>1.52490773948721E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
+        <v>-2.0313516228501201E-2</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.559483350965577</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>2.8053054615583699E-2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.419773371426297</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>6.0683253982250503E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>8.09189584384684E-2</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5.0946409388509199E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>-3.5549149460436698E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.31815714465324202</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>2.40543515451128E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.48963938841712901</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>2.6870915219462801E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.50320473159489298</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>-8.6251758172458504E-2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>3.1772094119613403E-2</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="4">
+        <v>7.2233786118228701E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>-3.5000452762104499E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.324913777779061</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>2.20288802613961E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.527686421288866</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>3.5839565555344503E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.39627875439740301</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>-9.1361509406459804E-2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>3.0484118127358101E-2</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="4">
+        <v>7.3087974073231497E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>-2.1494933167641998E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.54023061417925899</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>2.8742259732985002E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.41020628133102799</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>-1.6990878693552602E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.640028316340014</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>4.9595954204542901E-3</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.89094092041176598</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4">
+        <v>1.6855428435428299E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>-3.0085255311333801E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.399631911763346</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>2.5110376924889499E-2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.47210031602207098</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <v>-1.68248788615253E-2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.63069461245811997</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>-4.5126798581089499E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.20400487697770001</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4">
+        <v>3.6121856672435199E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>-2.0084194500602399E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.56745186865706498</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>2.8249920913312802E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.41752399309635102</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>-1.5289791834672099E-2</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.66232627355164297</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
+        <v>2.5143534917677901E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.470330010652871</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4">
+        <v>2.2929333505444698E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-2.1297633912089099E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.54388162114313499</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>2.8833350415002099E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.40843682790541402</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>-1.4792429321491799E-2</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.67422469777731198</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>8.7582706072290694E-3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.80230507838937004</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4">
+        <v>1.73861048364087E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="6">
+        <v>-1.8601825172202199E-2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.59571945650205704</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>2.8265279766496301E-2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.41654754921404702</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <v>-1.47075002193455E-2</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.67397101727208797</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>6.0453219931920703E-2</v>
+      </c>
+      <c r="L59" s="6">
+        <v>8.2264795609900895E-2</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="7">
+        <v>5.3079316603660198E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-2.78355689001792E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.42333230017662499</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4">
+        <v>9.7728112324937302E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3">
+        <v>-7.4156706249983995E-2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3.2987566211497697E-2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6">
+        <v>6.2475009904927797E-2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7.1767977201928304E-2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20678A4-9D4A-4067-A077-B91292661A72}">
+  <dimension ref="A1:N65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-7.0003347529970297E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.7846714248724195E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-5.1107917348641702E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-7.0797624055508003E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.2326903295280702E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36529.463371232603</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13781.412538992899</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16591.1341858247</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26070.6956137411</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35496.463767952897</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45453.746246070099</v>
+      </c>
+      <c r="I4" s="8">
+        <v>69393.9513858719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3599.4222119098599</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2428.7791116693902</v>
+      </c>
+      <c r="E5" s="2">
+        <v>710.33756728276103</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1727.01998845662</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2868.8426576559</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5085.2385475893498</v>
+      </c>
+      <c r="I5" s="8">
+        <v>16566.919305978499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.1929043941007201E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68773816096483198</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1.4831779052513201</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.248360142454841</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.7220843331611499E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.29348450978805002</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.2155925251388604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.1573455591200501</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.9047748603073398</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.47908874789852202</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.2926971209242999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.63354698904895</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.9781129241239499</v>
+      </c>
+      <c r="I7" s="8">
+        <v>26.469233484931699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36497.074789915903</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13738.8185992989</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16678</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26066.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35379.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45497.1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>69137.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46.537815126050397</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.428715672353899</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2">
+        <v>69</v>
+      </c>
+      <c r="I9" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-6.0125173646738903E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.7998161137437798E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-4.8022206682665103E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-6.1166196678890897E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.8009479296160606E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-4.8022206682665103E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-5.53176512783074E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.7738292546926703E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-4.3900889911992799E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-5.4981564868884702E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.7747830863079893E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-4.3900889911992799E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.155935345789808</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.0365197095525096E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.4315832066586999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.15466319313187099</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.3056726502300402E-2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.3920703309746699E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-6.0661781113593397E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.51223539200824297</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>3.6798516878734301E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-0.11454558656942999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.21481164076768</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>1.31206914025346E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.15530668306127099</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.1687445219395494E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.4120165803493999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.7710795466793801E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.76482117923505</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>7.6788818540229897E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-3.97625329444979E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.66766894164414803</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>1.5810590261621201E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.25774782776102E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.89201005024678204</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>1.5819295982322199E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.3467663330639004E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.96257911414941599</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>1.8894377554201599E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-8.4876043825040798E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.35873784056693198</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
+        <v>7.2039428153902697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-4.01071107259462E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.66540810722319499</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-0.15045608283383199</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.106564454283797</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4">
+        <v>2.5894390074829701E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.85134030859797E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.86009488459638594</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>-0.163621676684858</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.121201841889628</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4">
+        <v>2.4183194976001399E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3.5334136803642099E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.78222454925067397</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>-0.13895575201487201</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.27815425235243801</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4">
+        <v>1.37733364491194E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-4.2889547179626702E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.64297666837505296</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>-0.15023294186761299</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.10624975187850599</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4">
+        <v>2.5933936211067501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-0.10205691067313701</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.34615439707752199</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>8.0313136832104795E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.45814677956380301</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4">
+        <v>8.4164948844343002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-5.3787527699519E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.57789011387984701</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>-2.4932569335623399E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.796344872773735</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4">
+        <v>4.2542293415480598E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-6.5295808542277206E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.49010920803740199</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>2.47855174452816E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.79316859959909303</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4">
+        <v>4.2726993526938E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-6.1987738701074602E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.50772746639592403</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1.14962961689179E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.90214015686426396</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4">
+        <v>3.8102583499532898E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>-5.1470165452288601E-2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.58112515149956301</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>-7.8878270607972006E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.39822337444584999</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7">
+        <v>9.8171474635126901E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.8476956586755802E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.59350777768807095</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>-0.155476232452506</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.22277640015060299</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>-0.15905811630863501</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8.8448206455730899E-2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3.8457964459349098E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.4366826477745803E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.61944064857611203</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>-8.2188811143998605E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.54348445992056704</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>-0.14104279969926301</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.20816573276508399</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
+        <v>2.7323889012910801E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6.5960066421549404E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.60649807526880695</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>-0.15604063931714701</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.22116661543496499</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>-0.15911565452963899</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8.7627332541457104E-2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3.8584235975870698E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-5.3623361284358701E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.97089507198948599</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>-0.12639863950713201</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.33222694971497602</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>6.2126885873628503E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.57163882049924297</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
+        <v>1.6525280591835799E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8.2001012461041495E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.56795018255791996</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>-0.176567599375207</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.20324698224280099</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>-7.5016851542810098E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.471264516547164</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
+        <v>1.8233571801448099E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.1162248338829499E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.81204409232185504</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>-0.13697787355003199</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.28932844010883702</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>1.50054442844885E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.87438447357747195</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="4">
+        <v>1.39885840346183E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.5731543958378603E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.78397300425363803</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>-0.139252917771506</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.28329219532761102</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>-1.6656615393743301E-3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.98589672526711902</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
+        <v>1.3776027807686201E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5.5185304310387803E-2</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.67004607024709495</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>-0.15237315865974199</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.23744510368226099</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>-9.0809168626243206E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.33297325829574598</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7">
+        <v>2.1813556961389601E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.4798634747004299E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.61647626121082799</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>-0.18455594048920501</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.25066480171036898</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>6.1203928789216398E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.76396918084550602</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>-0.201867148197899</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.23724446428295601</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="4">
+        <v>3.9221496359812397E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.1456166562291102E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.63478579532444102</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>-0.18614564318879601</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.247725729697718</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>6.3052050610563806E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.75736935732421795</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>-0.203146780590992</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.23388496801690301</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4">
+        <v>3.9392342549542998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>-1.3136748065999E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.92832862259891402</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>-3.3559307427879999E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.81258942717273397</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>-0.19408071973153701</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.110093588847781</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>0.13498283860778801</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.25426423696551598</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4">
+        <v>3.8398594761113597E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.11053043523655499</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.44621444782736602</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>-0.11963005426543601</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.410649132845675</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <v>-0.14062932631019801</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.21047663108149001</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>-7.4344666729571199E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.47413666255910503</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4">
+        <v>3.1704434583658299E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.0309501742782497E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.64973949838737399</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>-8.0298663283688704E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.55609199103250295</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>-0.140975976384454</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.21033403380547999</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
+        <v>1.45439071747315E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.87791247493706903</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4">
+        <v>2.7526096031845301E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.4534904303452906E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.62506866801767202</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>-8.2318305887185098E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.54778354322443201</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>-0.14103594741762401</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.21019976736427801</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>-7.1038020790779497E-4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.99396985739168697</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4">
+        <v>2.7324378511423501E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="6">
+        <v>8.4063474538678296E-2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.52193347887734398</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>-9.5690499685369204E-2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.48190662435479498</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <v>-0.140694353887417</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.209422252229439</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>-9.0430426210537096E-2</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.33376692224923099</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7">
+        <v>3.5297099169485001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-0.161981159931637</v>
+      </c>
+      <c r="C63" s="3">
+        <v>8.7423858058786302E-2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6.6589023277633996E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3">
+        <v>-0.27055690314936398</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.44386161013351E-2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.21708150167753901</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5.60639608175049E-2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141791C-34E6-4377-8BFA-B146CB0E0BD0}">
+  <dimension ref="A1:N65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16"/>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-7.0003347529970297E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.7846714248724195E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-5.1107917348641702E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-7.0797624055508003E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.2326903295280702E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36529.560014773699</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13781.3081753155</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16592.549740046601</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26071.302868315401</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35496.463767952897</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45453.746246070099</v>
+      </c>
+      <c r="I4" s="8">
+        <v>69393.9513858719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3598.8321266403</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2429.3085628574399</v>
+      </c>
+      <c r="E5" s="2">
+        <v>708.79318554368797</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1725.01121725296</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2868.8426576559</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5085.2385475893498</v>
+      </c>
+      <c r="I5" s="8">
+        <v>16566.919305978499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.2324073245541104E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68788583761329702</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1.4831779052513201</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.246883644686166</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.7220843331611499E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.29117887424913702</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.2155925251388604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.1403801706893799</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.9086253268406201</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.43273627135864901</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.2819134694844501</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.6078149111853799</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.9555620602247901</v>
+      </c>
+      <c r="I7" s="8">
+        <v>26.469233484931699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36497.074789915903</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13738.8185992989</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16678</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26066.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35379.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45497.1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>69137.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46.537815126050397</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.428715672353899</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2">
+        <v>69</v>
+      </c>
+      <c r="I9" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-6.0125173646738903E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.7998161137437798E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-4.8022206682665103E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-6.1166196678890897E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.8009479296160606E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-4.8022206682665103E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-5.53176512783074E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.7738292546926703E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-4.3900889911992799E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-5.4981564868884702E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.7747830863079893E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-0.35155683330952903</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-4.3900889911992799E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-6.5069245514486999E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.6316643250499299E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.30712672938802799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.15593621232128699</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.0363385053608705E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.4316102313109499E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.15467489677285101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.3031678504138807E-2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.3924323691692E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-6.0771278627827198E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.51147282114265402</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>3.6931483060609299E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-0.11574589469633</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.21001327393067701</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>1.33971121390539E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.15530668306127099</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.1687445219395494E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.4120165803493999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.7710795466793801E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.76482117923505</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>7.6788818540229897E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-3.97625329444979E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.66766894164414803</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>1.5810590261621201E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.25774782776102E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.89201005024678204</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>1.5819295982322199E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.3467663330639004E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.96257911414941599</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>1.8894377554201599E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-8.4876043825040798E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.35873784056693198</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
+        <v>7.2039428153902697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-4.02802186876745E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.66403285367367504</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-0.15045011222246399</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.106555600712239</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4">
+        <v>2.59085010363421E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.8248763579783701E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.86202512642430995</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>-0.16349485660669499</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.121354792200239</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4">
+        <v>2.4179549372412502E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3.6576383186525598E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.77461552476888196</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>-0.140998776159657</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.27084068095809699</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4">
+        <v>1.4097235923860399E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-4.3062374930303703E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.64162068986585696</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>-0.15023056936585999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.106235203859882</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4">
+        <v>2.59487670078834E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-0.102195041631617</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.34547891640623501</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>8.0378139942819005E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.45775997120613399</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4">
+        <v>8.4378655453343204E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-5.39027710051624E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.57710869671889498</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>-2.4884581674078501E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.79674489026558404</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4">
+        <v>4.2652143141921296E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-6.54242870602081E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.48928696774713099</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>2.4835113429474299E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.79277803978650796</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4">
+        <v>4.2882806776443003E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-6.20996038805878E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.50696276779340799</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1.1512123253373399E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.90200598854877301</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4">
+        <v>3.8239128398847E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>-5.1553972697508298E-2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.58052540703269295</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>-7.8849516877315798E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.39841336372500502</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7">
+        <v>9.8254358892339005E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.8209704638030597E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.59440151651938999</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>-0.15562328690225899</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.22179572825075999</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>-0.158124806024312</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9.0090394237508697E-2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3.8524948937875302E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.4413035349961498E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.61864204369277298</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>-8.3270720199703899E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.53920267777128195</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>-0.14005879044409</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.21254617756296201</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
+        <v>2.7387360447076001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6.5703386564646193E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.60738924862201804</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>-0.15617878882011699</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.220206131168458</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>-0.15818447782032799</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8.9252531539294702E-2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3.8651281394916102E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-3.9895285259315301E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.97830772755359796</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>-0.12865332357824</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.32311554905885798</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>6.2174715134106398E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.57106698359874497</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
+        <v>1.6856453607150101E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8.3557409771930199E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.56030893127725501</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>-0.17882855491744101</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.19714049900783701</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>-7.5585794387265495E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.467783738064941</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
+        <v>1.8626263094961001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.2428200054637799E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.80443467958536097</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>-0.13903626633438601</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.28182948003278002</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>1.4908711077829101E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.87517591834897301</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="4">
+        <v>1.43096878509199E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.69899763912672E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.77638131079805395</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>-0.14130676214058999</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.27587499349775202</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>-1.7416063302090801E-3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.985249354126571</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
+        <v>1.41001790931318E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5.6570729638933399E-2</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.66208209072311697</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>-0.15454300491289399</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.23056706987322101</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>-9.1047412160038005E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.33168498043840799</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7">
+        <v>2.2177586944286801E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.4474978506949998E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.61767802039597197</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>-0.18562917049509201</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.248481661167055</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>6.2954451447290005E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.75792279035453902</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>-0.20200048979601301</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.236351700609267</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="4">
+        <v>3.9329305524157199E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.1125652316282898E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.63608752592621298</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>-0.187222170144554</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.245554789327326</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>6.48163294072885E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.75131026904417098</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>-0.20328497715723001</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.23297957462697999</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4">
+        <v>3.9501570000357901E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>-1.2975105165588001E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.92911402083956895</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>-3.4478182322416603E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.80805751802892301</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>-0.19346117908410301</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.112440064635711</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>0.13487901303647901</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.25471610489803997</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4">
+        <v>3.8440414439059399E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.110572617725623</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.44528247923896702</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>-0.120833150168484</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.407051454848673</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <v>-0.13937007103150001</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.215784689993503</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>-7.4484432413548102E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.47325687881092499</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4">
+        <v>3.1785042762533099E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.0358646721839798E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.64898429147349501</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>-8.1380492816938696E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.55176923799396804</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>-0.14000365764221401</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.214688692842044</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
+        <v>1.45322283451805E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.87801388622840204</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4">
+        <v>2.7589215894360902E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.4577199011160796E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.624263383770021</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>-8.3397138058645806E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.54350100089061704</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>-0.14005134293286001</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.21459656931358101</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>-6.9751238287565995E-4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.99407813541403101</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4">
+        <v>2.73878324932957E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="6">
+        <v>8.4204430761059504E-2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.52063492943679401</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>-9.6933135708314494E-2</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.47736846635829699</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <v>-0.13959122536523899</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.21420288871419299</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>-9.0546406931461695E-2</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.33319435861920399</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7">
+        <v>3.5378880771480603E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-0.16193562538622899</v>
+      </c>
+      <c r="C63" s="3">
+        <v>8.7383330758598499E-2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6.6595122943831506E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3">
+        <v>-0.26944633763706299</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.47565840008294E-2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.21669973877396501</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5.6352512946186997E-2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/打包/RND Regression Rusults_20250115.xlsx
+++ b/打包/RND Regression Rusults_20250115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB67FF-11FE-44D6-AE7F-2FAD967192D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE161BB9-34C6-4C91-BE7F-A3A0A956A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBF08D5D-1F4D-46C7-8EA0-40B904A3BBF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="50">
   <si>
     <t>Mean</t>
   </si>
@@ -257,6 +257,114 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>這三個當作基準去做四因子，說明這是最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明：日的時候，一個點的方法比較好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>把結果貼到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Appendix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>正文對於週報酬沒有顯著解釋能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bla bla</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>使用前期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>要找文獻支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>加入美國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VIX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +422,18 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +443,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -423,23 +543,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -460,7 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -479,6 +629,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,9 +980,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A871C48-1125-403F-8E0E-C6618BA261E0}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -844,348 +1009,348 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0.25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.75</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>832</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>-2.43553389720119E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3.35866541886536E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>832</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>35891.0208176167</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>14144.2250560589</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>25047.482639999002</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>34274.110452302302</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>46035.601032658</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>72614.463836282099</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>832</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1784.3451762709201</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1422.5233848098801</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>821.39411158026701</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1463.6223370161899</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2291.7551898973202</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>12224.7220880276</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>832</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.40538948609564901</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>7.2139521662707704</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-12.506194916617799</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>-0.77117460276592997</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.24513331194642499</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>1.0920754981994301</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>193.70104411645301</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>832</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>56.663665665035602</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1392.51236705888</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-140.82514970153801</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>-0.28143111696323903</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1.6822177396853299</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>4.2421137107484101</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>40084.749417957901</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>832</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>36972.094831730697</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>14057.615532425199</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>7860</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>25800.875</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>35687.35</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>46933.4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>72597.399999999994</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>832</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>46.989182692307601</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>22.4770213627882</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>26</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>49</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>68.25</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>832</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>-1.09233434708052E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3.3670728764471698E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>832</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>-5.1370134751633298E-5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3.3668987810085003E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1.61125150779644E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>832</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>-1.11253910000984E-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3.3671558224764399E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>1.5976773762046498E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>832</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>-2.6548029552194401E-4</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3.3690305407049398E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>-1.5693214716216802E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>-3.6226409783535001E-4</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>0.13527871467525199</v>
       </c>
     </row>
@@ -1195,175 +1360,175 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-8.6637894530932E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1.2420596963119999E-2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>7.5061247687527796E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>-2.4739049285859301E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.47608123044692202</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4">
+      <c r="D18" s="17"/>
+      <c r="E18" s="3">
         <v>6.1202055956821599E-4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6.13518446456554E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>7.6950042633492893E-2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>3.7640488414245601E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5.1480006318567598E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.13789866603252501</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
+      <c r="D20" s="17"/>
+      <c r="E20" s="3">
         <v>2.6501910505596299E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>-7.0669790667956103E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>4.1558715637809197E-2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>4.9942193130526596E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>-2.3423987784203801E-3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.94621262030382003</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
+      <c r="D22" s="17"/>
+      <c r="E22" s="3">
         <v>5.4868320370493598E-6</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-4.0168290837145203E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.24712701015442401</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="D23" s="17"/>
+      <c r="E23" s="3">
         <v>1.6134915887774299E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2.7628458581852599E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.42610156154366002</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="D24" s="17"/>
+      <c r="E24" s="3">
         <v>7.6333172360920599E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>9.2774188680449093E-3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.78931124824439702</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="D25" s="17"/>
+      <c r="E25" s="3">
         <v>8.6070500852963806E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>6.1719443207418498E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>7.5193717185724596E-2</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>3.8092896698337301E-3</v>
       </c>
     </row>
@@ -1373,244 +1538,244 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>5.0165270575812097E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.15103224117589401</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="17"/>
+      <c r="E30" s="2">
         <v>-7.9586752232932198E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>2.2852541488223199E-2</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>9.9729605329905695E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>6.0709315247808399E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>8.0307266826444401E-2</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>-2.3046491446388501E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.50640555733814596</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4">
+      <c r="G31" s="17"/>
+      <c r="H31" s="3">
         <v>4.2947767653859197E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.121099448588204</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.25947454170697998</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="17"/>
+      <c r="E32" s="2">
         <v>-6.3130406171094694E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.55652450668751596</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4">
+      <c r="G32" s="17"/>
+      <c r="H32" s="3">
         <v>4.17972084787632E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6.4000682818689494E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>6.4677982367772904E-2</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>-7.2992328597725198E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>3.5171030351602198E-2</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>9.0849125318760403E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>6.1763139954901798E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>7.5778183647705499E-2</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>-6.3456170141285599E-3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.85510249004414096</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4">
+      <c r="G34" s="17"/>
+      <c r="H34" s="3">
         <v>3.8041465328831898E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>5.8072059111617599E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>9.5559315779394693E-2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>-3.4675546920426403E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.31935298459802702</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4">
+      <c r="G35" s="17"/>
+      <c r="H35" s="3">
         <v>4.9556854025061201E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>6.23800485687429E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>7.2352827739695397E-2</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>2.97820826708598E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.39059725487526598</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4">
+      <c r="G36" s="17"/>
+      <c r="H36" s="3">
         <v>4.6499640863311101E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>6.14761810170509E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>7.6539689325063304E-2</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1.0038834477778501E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0.77221021158698699</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4">
+      <c r="G37" s="17"/>
+      <c r="H37" s="3">
         <v>3.8648115795636398E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>6.02465755202332E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>8.2082847552600299E-2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>6.0621000770161602E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>8.0202417590957004E-2</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>7.4377329559607297E-3</v>
       </c>
     </row>
@@ -1620,273 +1785,273 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>8.4379625560117105E-2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.43623907384214</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D42" s="17"/>
+      <c r="E42" s="2">
         <v>-3.59542126790455E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.73872116066240101</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="G42" s="17"/>
+      <c r="H42" s="2">
         <v>-7.8258294557429803E-2</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>2.6252046763904E-2</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>1.0106056452763501E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0.123222507556984</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.25156756127286301</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="D43" s="17"/>
+      <c r="E43" s="2">
         <v>-6.6077634855307696E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.53870489764977703</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="G43" s="17"/>
+      <c r="H43" s="2">
         <v>-2.38971088665281E-2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>0.49135426480982403</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4">
+      <c r="J43" s="17"/>
+      <c r="K43" s="3">
         <v>4.7494428346554996E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>0.105487792591286</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.32617574314083297</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="D44" s="17"/>
+      <c r="E44" s="2">
         <v>-4.3883166599679203E-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0.68325656418177005</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="G44" s="17"/>
+      <c r="H44" s="2">
         <v>-7.17631619728131E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>3.9189366399609203E-2</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>9.2842526035328207E-3</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>0.12200409028011</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.256648572405278</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="D45" s="17"/>
+      <c r="E45" s="2">
         <v>-6.3619005301454604E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0.55381135868500697</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="G45" s="17"/>
+      <c r="H45" s="2">
         <v>-6.8227937645380498E-3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>0.84444266299079995</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4">
+      <c r="J45" s="17"/>
+      <c r="K45" s="3">
         <v>4.2260509018794403E-3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>0.11074634631589</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.30488142685951602</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
+      <c r="D46" s="17"/>
+      <c r="E46" s="2">
         <v>-5.5523378362304199E-2</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.60604694071911702</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="G46" s="17"/>
+      <c r="H46" s="2">
         <v>-3.33424241516872E-2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>0.33984156677807398</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4">
+      <c r="J46" s="17"/>
+      <c r="K46" s="3">
         <v>5.2754569558671697E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>0.12325626058851701</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.251290913593189</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
+      <c r="D47" s="17"/>
+      <c r="E47" s="2">
         <v>-6.4313269604770906E-2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0.54924773645206204</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="G47" s="17"/>
+      <c r="H47" s="2">
         <v>3.0046465574798599E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>0.38662872596999298</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4">
+      <c r="J47" s="17"/>
+      <c r="K47" s="3">
         <v>5.0812889552741504E-3</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>0.12014692819480099</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.26376975506559402</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="D48" s="17"/>
+      <c r="E48" s="2">
         <v>-6.2002896387986103E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0.564114676033036</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="G48" s="17"/>
+      <c r="H48" s="2">
         <v>9.2505063391655692E-3</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>0.78990089931975005</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4">
+      <c r="J48" s="17"/>
+      <c r="K48" s="3">
         <v>4.2651469974871398E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>0.122915997328869</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>0.25182418492024899</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="18"/>
+      <c r="E49" s="5">
         <v>-6.6224406604815905E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.53689113439980396</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
+      <c r="G49" s="18"/>
+      <c r="H49" s="5">
         <v>6.0971614368139603E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>7.8625246943594906E-2</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>7.8950243923862004E-3</v>
       </c>
     </row>
@@ -1896,302 +2061,302 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>8.2666074003323195E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>0.44784695382849399</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
+      <c r="D53" s="17"/>
+      <c r="E53" s="2">
         <v>-3.4320731958467798E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0.751287280461715</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="G53" s="17"/>
+      <c r="H53" s="2">
         <v>6.3441679847783799E-3</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>0.86553533520975601</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="J53" s="17"/>
+      <c r="K53" s="2">
         <v>-8.0709046493723194E-2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>3.4112470586930899E-2</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>1.01403978050004E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>0.103385792982507</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.33729864270774901</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="D54" s="17"/>
+      <c r="E54" s="2">
         <v>-4.1137902098533997E-2</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0.70337018845006305</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="G54" s="17"/>
+      <c r="H54" s="2">
         <v>1.11426551200586E-2</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>0.77496634982299895</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="J54" s="17"/>
+      <c r="K54" s="2">
         <v>-7.6875078646053793E-2</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>4.9561170207298201E-2</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>9.3822166709742697E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>0.12340222322668599</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.25149548795911503</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
+      <c r="D55" s="17"/>
+      <c r="E55" s="2">
         <v>-6.6148115797218104E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0.53856089400878304</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="G55" s="17"/>
+      <c r="H55" s="2">
         <v>-2.3544285863217301E-2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>0.50880458923564598</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+      <c r="J55" s="17"/>
+      <c r="K55" s="2">
         <v>-1.5918192257712699E-3</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <v>0.96440829976111297</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="4">
+      <c r="M55" s="17"/>
+      <c r="N55" s="3">
         <v>4.7518405329103298E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0.112690162101914</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.296765029437702</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+      <c r="D56" s="17"/>
+      <c r="E56" s="2">
         <v>-5.8412270786467102E-2</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0.58780115582172299</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="G56" s="17"/>
+      <c r="H56" s="2">
         <v>-2.5160858199137701E-2</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>0.46905239662820303</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="2">
         <v>-3.4281261211414303E-2</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <v>0.32689770738205498</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4">
+      <c r="M56" s="17"/>
+      <c r="N56" s="3">
         <v>5.9061606308683503E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>0.12522413015991901</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>0.244153561274849</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
+      <c r="D57" s="17"/>
+      <c r="E57" s="2">
         <v>-6.7095471431547496E-2</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0.53256841256124399</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="G57" s="17"/>
+      <c r="H57" s="2">
         <v>-2.28259386486785E-2</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>0.51133475955160801</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="J57" s="17"/>
+      <c r="K57" s="2">
         <v>2.9210261676389699E-2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <v>0.40045474046641699</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4">
+      <c r="M57" s="17"/>
+      <c r="N57" s="3">
         <v>5.6003826123321998E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>0.122421862983165</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.25523933182616698</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
+      <c r="D58" s="17"/>
+      <c r="E58" s="2">
         <v>-6.5118507882266502E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0.54521734138705003</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="G58" s="17"/>
+      <c r="H58" s="2">
         <v>-2.3269904352133702E-2</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>0.50464877947984399</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3">
+      <c r="J58" s="17"/>
+      <c r="K58" s="2">
         <v>7.2343983589909198E-3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <v>0.83560525715164802</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4">
+      <c r="M58" s="17"/>
+      <c r="N58" s="3">
         <v>4.8012977762193999E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>0.124777754110897</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>0.24508627837177699</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
+      <c r="D59" s="18"/>
+      <c r="E59" s="5">
         <v>-6.8800169471607706E-2</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>0.52165311256884195</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="18"/>
+      <c r="H59" s="5">
         <v>-2.1267686812106001E-2</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>0.54013597692455895</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6">
+      <c r="J59" s="18"/>
+      <c r="K59" s="5">
         <v>6.0041878407047902E-2</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>8.3694568305319197E-2</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>8.3454058829799393E-3</v>
       </c>
     </row>
@@ -2201,66 +2366,81 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>6.2919039823620598E-2</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>6.8982713260715603E-2</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>1.29940134400429E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>-7.4614665266187805E-2</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>3.11388386237436E-2</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>6.2554218051421195E-2</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>7.0519125181042003E-2</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2270,9 +2450,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD33AF60-BC21-45A2-BCA6-53AF3BD5B4AA}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -2296,348 +2478,348 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0.25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.75</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>832</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>-2.43553389720119E-4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>3.35866541886536E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>832</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>35891.0208176167</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>14144.2250560589</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>25047.482639999002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>34274.110452302302</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>46035.601032658</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>72614.463836282099</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>832</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1784.3451762709201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1422.5233848098801</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>821.39411158026701</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1463.6223370161899</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>2291.7551898973202</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>12224.7220880276</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>832</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.40538948609564901</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>7.2139521662707704</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-12.506194916617799</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-0.77117460276592997</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.24513331194642499</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1.0920754981994301</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>193.70104411645301</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>832</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>56.663665665035602</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1392.51236705888</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-140.82514970153801</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>-0.28143111696323903</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1.6822177396853299</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>4.2421137107484101</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>40084.749417957901</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>832</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>36972.094831730697</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>14057.615532425199</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>7860</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>25800.875</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>35687.35</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>46933.4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>72597.399999999994</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>832</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>46.989182692307601</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>22.4770213627882</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>26</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>49</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>68.25</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>832</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>-1.09233434708052E-4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>3.3670728764471698E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-1.54872764908541E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>832</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>-5.1370134751633298E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>3.3668987810085003E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>-2.9144441537375001E-4</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1.61125150779644E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>832</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>-1.11253910000984E-4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>3.3671558224764399E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-1.52876260315292E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-3.4338438748174999E-4</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1.5976773762046498E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.13527871467525199</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>832</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>-2.6548029552194401E-4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>3.3690305407049398E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>-0.16699764123151001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>-1.5693214716216802E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>-3.6226409783535001E-4</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1.5644608963848099E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.13527871467525199</v>
       </c>
     </row>
@@ -2647,173 +2829,173 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-7.0749092241598005E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>4.14525617317172E-2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>5.0054340530101202E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>-1.79496818339052E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.60536594580664105</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4">
+      <c r="D18" s="17"/>
+      <c r="E18" s="3">
         <v>3.2219107793873798E-4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>-2.4995421644211101E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.471788183810948</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4">
+      <c r="D19" s="17"/>
+      <c r="E19" s="3">
         <v>6.2477110317182805E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>2.9720336233436399E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.39219161434611</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
+      <c r="D20" s="17"/>
+      <c r="E20" s="3">
         <v>8.8329838582856801E-4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>-7.0298197184893996E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>4.2770159249151098E-2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>4.9418365274465003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>-2.20634210453381E-3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.94936300889613101</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
+      <c r="D22" s="17"/>
+      <c r="E22" s="3">
         <v>4.8679454822675396E-6</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-4.0151351631839798E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.247611693952487</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="D23" s="17"/>
+      <c r="E23" s="3">
         <v>1.6121310378637199E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2.6920494512131E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.43833297091399398</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="D24" s="17"/>
+      <c r="E24" s="3">
         <v>7.2471302477761202E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>9.5693406610652208E-3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.78297273771366604</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="D25" s="17"/>
+      <c r="E25" s="3">
         <v>9.1572280687679503E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>6.1848196558325401E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>7.4761505534771899E-2</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>3.8251994175173502E-3</v>
       </c>
     </row>
@@ -2823,230 +3005,230 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>-3.2673099047466903E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.34853878114554099</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="17"/>
+      <c r="E30" s="2">
         <v>-7.4132926214703895E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>3.3618339048448097E-2</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>6.0615151220182401E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>-2.3222780597749199E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.506881967124443</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="17"/>
+      <c r="E31" s="2">
         <v>-1.52503580577195E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.66292092462154395</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4">
+      <c r="G31" s="17"/>
+      <c r="H31" s="3">
         <v>8.5420226778076802E-4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>-2.3229729435419299E-2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.50457208655108698</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="17"/>
+      <c r="E32" s="2">
         <v>2.8269420302454201E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.416771936825097</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4">
+      <c r="G32" s="17"/>
+      <c r="H32" s="3">
         <v>1.42081355843259E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>-3.07387920564876E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.37676399243276398</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="17"/>
+      <c r="E33" s="2">
         <v>-7.2725732298354107E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>3.6714989206365303E-2</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>5.8808169378113898E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>-2.4949218818145599E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.47352966686756498</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="D34" s="17"/>
+      <c r="E34" s="2">
         <v>-8.4967163800164899E-4</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.98052287543771</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4">
+      <c r="G34" s="17"/>
+      <c r="H34" s="3">
         <v>6.2549091036279104E-4</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>-3.3894544786766498E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.337996596439462</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
+      <c r="D35" s="17"/>
+      <c r="E35" s="2">
         <v>-4.6621193090672801E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.18765014305095201</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4">
+      <c r="G35" s="17"/>
+      <c r="H35" s="3">
         <v>2.7191123556634601E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-2.3599119339598702E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.49765020098922202</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
+      <c r="D36" s="17"/>
+      <c r="E36" s="2">
         <v>2.5635088177971398E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.46131521320427599</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4">
+      <c r="G36" s="17"/>
+      <c r="H36" s="3">
         <v>1.27997918893829E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>-2.48117146121744E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.47538965178342102</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
+      <c r="D37" s="17"/>
+      <c r="E37" s="2">
         <v>9.0666072428114506E-3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0.79421120751599905</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4">
+      <c r="G37" s="17"/>
+      <c r="H37" s="3">
         <v>7.0694072179344704E-4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>-2.2060872949040002E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>0.52532213831315</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="D38" s="18"/>
+      <c r="E38" s="5">
         <v>6.0783119503113901E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>8.0355563558113297E-2</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>4.3107471436574204E-3</v>
       </c>
     </row>
@@ -3056,273 +3238,273 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>-3.09939904395613E-2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.37506108053696002</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D42" s="17"/>
+      <c r="E42" s="2">
         <v>2.5028224123736599E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.47170133547617499</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="G42" s="17"/>
+      <c r="H42" s="2">
         <v>-7.3014226072800101E-2</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>3.6621246326752101E-2</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>6.6842453111302103E-3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>-2.1394953799108399E-2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.541788901613939</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="D43" s="17"/>
+      <c r="E43" s="2">
         <v>2.84945729144215E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.41334675879934102</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="G43" s="17"/>
+      <c r="H43" s="2">
         <v>-1.56639276215827E-2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>0.654465724994855</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4">
+      <c r="J43" s="17"/>
+      <c r="K43" s="3">
         <v>1.66280669618834E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>-2.9133816036979999E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.403393588790805</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="D44" s="17"/>
+      <c r="E44" s="2">
         <v>2.3805600376116801E-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0.49409305885379001</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="G44" s="17"/>
+      <c r="H44" s="2">
         <v>-7.1230392279236804E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>4.1211223095099302E-2</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>6.4430906253692896E-3</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>-2.32530652871673E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.50496668455737503</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="D45" s="17"/>
+      <c r="E45" s="2">
         <v>2.8290307821355502E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0.41720438242570701</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="G45" s="17"/>
+      <c r="H45" s="2">
         <v>4.5313921520754701E-4</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>0.98962506854016596</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4">
+      <c r="J45" s="17"/>
+      <c r="K45" s="3">
         <v>1.4210178518415601E-3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>-3.1968850334320197E-2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.36767375339185099</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
+      <c r="D46" s="17"/>
+      <c r="E46" s="2">
         <v>2.49021235291992E-2</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.47554198579458301</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="G46" s="17"/>
+      <c r="H46" s="2">
         <v>-4.4681132239558399E-2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>0.20813671420878699</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4">
+      <c r="J46" s="17"/>
+      <c r="K46" s="3">
         <v>3.3331822296609401E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>-2.18630202486364E-2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.53067516671503501</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
+      <c r="D47" s="17"/>
+      <c r="E47" s="2">
         <v>2.8028004182186299E-2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0.42091322038571899</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="G47" s="17"/>
+      <c r="H47" s="2">
         <v>2.5368614386918901E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>0.46609984002863503</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4">
+      <c r="J47" s="17"/>
+      <c r="K47" s="3">
         <v>2.0624127621606801E-3</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>-2.29972087694458E-2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.50918975075157802</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="D48" s="17"/>
+      <c r="E48" s="2">
         <v>2.8679073195370299E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0.41068902003118202</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="G48" s="17"/>
+      <c r="H48" s="2">
         <v>1.02129409838138E-2</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>0.76911590206898295</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4">
+      <c r="J48" s="17"/>
+      <c r="K48" s="3">
         <v>1.52490773948721E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>-2.0313516228501201E-2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>0.559483350965577</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="18"/>
+      <c r="E49" s="5">
         <v>2.8053054615583699E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.419773371426297</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
+      <c r="G49" s="18"/>
+      <c r="H49" s="5">
         <v>6.0683253982250503E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>8.09189584384684E-2</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>5.0946409388509199E-3</v>
       </c>
     </row>
@@ -3332,302 +3514,302 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>-3.5549149460436698E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>0.31815714465324202</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
+      <c r="D53" s="17"/>
+      <c r="E53" s="2">
         <v>2.40543515451128E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0.48963938841712901</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="G53" s="17"/>
+      <c r="H53" s="2">
         <v>2.6870915219462801E-2</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>0.50320473159489298</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="J53" s="17"/>
+      <c r="K53" s="2">
         <v>-8.6251758172458504E-2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>3.1772094119613403E-2</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>7.2233786118228701E-3</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>-3.5000452762104499E-2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.324913777779061</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="D54" s="17"/>
+      <c r="E54" s="2">
         <v>2.20288802613961E-2</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0.527686421288866</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="G54" s="17"/>
+      <c r="H54" s="2">
         <v>3.5839565555344503E-2</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>0.39627875439740301</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="J54" s="17"/>
+      <c r="K54" s="2">
         <v>-9.1361509406459804E-2</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>3.0484118127358101E-2</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>7.3087974073231497E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>-2.1494933167641998E-2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.54023061417925899</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
+      <c r="D55" s="17"/>
+      <c r="E55" s="2">
         <v>2.8742259732985002E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0.41020628133102799</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="G55" s="17"/>
+      <c r="H55" s="2">
         <v>-1.6990878693552602E-2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>0.640028316340014</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+      <c r="J55" s="17"/>
+      <c r="K55" s="2">
         <v>4.9595954204542901E-3</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <v>0.89094092041176598</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="4">
+      <c r="M55" s="17"/>
+      <c r="N55" s="3">
         <v>1.6855428435428299E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>-3.0085255311333801E-2</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.399631911763346</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+      <c r="D56" s="17"/>
+      <c r="E56" s="2">
         <v>2.5110376924889499E-2</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0.47210031602207098</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="G56" s="17"/>
+      <c r="H56" s="2">
         <v>-1.68248788615253E-2</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>0.63069461245811997</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="2">
         <v>-4.5126798581089499E-2</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <v>0.20400487697770001</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4">
+      <c r="M56" s="17"/>
+      <c r="N56" s="3">
         <v>3.6121856672435199E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>-2.0084194500602399E-2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>0.56745186865706498</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
+      <c r="D57" s="17"/>
+      <c r="E57" s="2">
         <v>2.8249920913312802E-2</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0.41752399309635102</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="G57" s="17"/>
+      <c r="H57" s="2">
         <v>-1.5289791834672099E-2</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>0.66232627355164297</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="J57" s="17"/>
+      <c r="K57" s="2">
         <v>2.5143534917677901E-2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <v>0.470330010652871</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4">
+      <c r="M57" s="17"/>
+      <c r="N57" s="3">
         <v>2.2929333505444698E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>-2.1297633912089099E-2</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.54388162114313499</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
+      <c r="D58" s="17"/>
+      <c r="E58" s="2">
         <v>2.8833350415002099E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0.40843682790541402</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="G58" s="17"/>
+      <c r="H58" s="2">
         <v>-1.4792429321491799E-2</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>0.67422469777731198</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3">
+      <c r="J58" s="17"/>
+      <c r="K58" s="2">
         <v>8.7582706072290694E-3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <v>0.80230507838937004</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4">
+      <c r="M58" s="17"/>
+      <c r="N58" s="3">
         <v>1.73861048364087E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>-1.8601825172202199E-2</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>0.59571945650205704</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
+      <c r="D59" s="18"/>
+      <c r="E59" s="5">
         <v>2.8265279766496301E-2</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>0.41654754921404702</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="18"/>
+      <c r="H59" s="5">
         <v>-1.47075002193455E-2</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>0.67397101727208797</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6">
+      <c r="J59" s="18"/>
+      <c r="K59" s="5">
         <v>6.0453219931920703E-2</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>8.2264795609900895E-2</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>5.3079316603660198E-3</v>
       </c>
     </row>
@@ -3637,64 +3819,69 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>-2.78355689001792E-2</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>0.42333230017662499</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4">
+      <c r="D63" s="17"/>
+      <c r="E63" s="3">
         <v>9.7728112324937302E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>-7.4156706249983995E-2</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>3.2987566211497697E-2</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>6.2475009904927797E-2</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>7.1767977201928304E-2</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3704,9 +3891,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20678A4-9D4A-4067-A077-B91292661A72}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -3730,348 +3919,348 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0.25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.75</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>119</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>-7.0003347529970297E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>9.7846714248724195E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-5.1107917348641702E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-7.0797624055508003E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>4.2326903295280702E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>119</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>36529.463371232603</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>13781.412538992899</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>16591.1341858247</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>26070.6956137411</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>35496.463767952897</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>45453.746246070099</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>69393.9513858719</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>119</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3599.4222119098599</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2428.7791116693902</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>710.33756728276103</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1727.01998845662</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2868.8426576559</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5085.2385475893498</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>16566.919305978499</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>119</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7.1929043941007201E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.68773816096483198</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-1.4831779052513201</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-0.248360142454841</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.7220843331611499E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.29348450978805002</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>4.2155925251388604</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>119</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.1573455591200501</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.9047748603073398</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.47908874789852202</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1.2926971209242999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1.63354698904895</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1.9781129241239499</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>26.469233484931699</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>119</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>36497.074789915903</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>13738.8185992989</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>16678</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>26066.9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>35379.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>45497.1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>69137.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>119</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>46.537815126050397</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>22.428715672353899</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>48</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>69</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>119</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>-6.0125173646738903E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>9.7998161137437798E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-4.8022206682665103E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>119</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>-6.1166196678890897E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>9.8009479296160606E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-4.8022206682665103E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>119</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>-5.53176512783074E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>9.7738292546926703E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-4.3900889911992799E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>119</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>-5.4981564868884702E-3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>9.7747830863079893E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>-4.3900889911992799E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.30712672938802799</v>
       </c>
     </row>
@@ -4081,173 +4270,173 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-0.155935345789808</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>9.0365197095525096E-2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2.4315832066586999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>-0.15466319313187099</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>9.3056726502300402E-2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2.3920703309746699E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>-6.0661781113593397E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.51223539200824297</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4">
+      <c r="D19" s="17"/>
+      <c r="E19" s="3">
         <v>3.6798516878734301E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>-0.11454558656942999</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.21481164076768</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
+      <c r="D20" s="17"/>
+      <c r="E20" s="3">
         <v>1.31206914025346E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>-0.15530668306127099</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>9.1687445219395494E-2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>2.4120165803493999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>2.7710795466793801E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.76482117923505</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
+      <c r="D22" s="17"/>
+      <c r="E22" s="3">
         <v>7.6788818540229897E-4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-3.97625329444979E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.66766894164414803</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="D23" s="17"/>
+      <c r="E23" s="3">
         <v>1.5810590261621201E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1.25774782776102E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.89201005024678204</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="D24" s="17"/>
+      <c r="E24" s="3">
         <v>1.5819295982322199E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>4.3467663330639004E-3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.96257911414941599</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="D25" s="17"/>
+      <c r="E25" s="3">
         <v>1.8894377554201599E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>-8.4876043825040798E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0.35873784056693198</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7">
+      <c r="D26" s="18"/>
+      <c r="E26" s="6">
         <v>7.2039428153902697E-3</v>
       </c>
     </row>
@@ -4257,224 +4446,224 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>-4.01071107259462E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.66540810722319499</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="17"/>
+      <c r="E30" s="2">
         <v>-0.15045608283383199</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.106564454283797</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4">
+      <c r="G30" s="17"/>
+      <c r="H30" s="3">
         <v>2.5894390074829701E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1.85134030859797E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.86009488459638594</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="17"/>
+      <c r="E31" s="2">
         <v>-0.163621676684858</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.121201841889628</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4">
+      <c r="G31" s="17"/>
+      <c r="H31" s="3">
         <v>2.4183194976001399E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>3.5334136803642099E-2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.78222454925067397</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="17"/>
+      <c r="E32" s="2">
         <v>-0.13895575201487201</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.27815425235243801</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4">
+      <c r="G32" s="17"/>
+      <c r="H32" s="3">
         <v>1.37733364491194E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>-4.2889547179626702E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.64297666837505296</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="17"/>
+      <c r="E33" s="2">
         <v>-0.15023294186761299</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0.10624975187850599</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4">
+      <c r="G33" s="17"/>
+      <c r="H33" s="3">
         <v>2.5933936211067501E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>-0.10205691067313701</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.34615439707752199</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="D34" s="17"/>
+      <c r="E34" s="2">
         <v>8.0313136832104795E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.45814677956380301</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4">
+      <c r="G34" s="17"/>
+      <c r="H34" s="3">
         <v>8.4164948844343002E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>-5.3787527699519E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.57789011387984701</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
+      <c r="D35" s="17"/>
+      <c r="E35" s="2">
         <v>-2.4932569335623399E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.796344872773735</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4">
+      <c r="G35" s="17"/>
+      <c r="H35" s="3">
         <v>4.2542293415480598E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-6.5295808542277206E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.49010920803740199</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
+      <c r="D36" s="17"/>
+      <c r="E36" s="2">
         <v>2.47855174452816E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.79316859959909303</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4">
+      <c r="G36" s="17"/>
+      <c r="H36" s="3">
         <v>4.2726993526938E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>-6.1987738701074602E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.50772746639592403</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
+      <c r="D37" s="17"/>
+      <c r="E37" s="2">
         <v>1.14962961689179E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0.90214015686426396</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4">
+      <c r="G37" s="17"/>
+      <c r="H37" s="3">
         <v>3.8102583499532898E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>-5.1470165452288601E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>0.58112515149956301</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="D38" s="18"/>
+      <c r="E38" s="5">
         <v>-7.8878270607972006E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.39822337444584999</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7">
+      <c r="G38" s="18"/>
+      <c r="H38" s="6">
         <v>9.8171474635126901E-3</v>
       </c>
     </row>
@@ -4484,271 +4673,271 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>6.8476956586755802E-2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.59350777768807095</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D42" s="17"/>
+      <c r="E42" s="2">
         <v>-0.155476232452506</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.22277640015060299</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="G42" s="17"/>
+      <c r="H42" s="2">
         <v>-0.15905811630863501</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>8.8448206455730899E-2</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>3.8457964459349098E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>6.4366826477745803E-2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.61944064857611203</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="D43" s="17"/>
+      <c r="E43" s="2">
         <v>-8.2188811143998605E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.54348445992056704</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="G43" s="17"/>
+      <c r="H43" s="2">
         <v>-0.14104279969926301</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>0.20816573276508399</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4">
+      <c r="J43" s="17"/>
+      <c r="K43" s="3">
         <v>2.7323889012910801E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>6.5960066421549404E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.60649807526880695</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="D44" s="17"/>
+      <c r="E44" s="2">
         <v>-0.15604063931714701</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0.22116661543496499</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="G44" s="17"/>
+      <c r="H44" s="2">
         <v>-0.15911565452963899</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>8.7627332541457104E-2</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>3.8584235975870698E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>-5.3623361284358701E-3</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.97089507198948599</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="D45" s="17"/>
+      <c r="E45" s="2">
         <v>-0.12639863950713201</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0.33222694971497602</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="G45" s="17"/>
+      <c r="H45" s="2">
         <v>6.2126885873628503E-2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>0.57163882049924297</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4">
+      <c r="J45" s="17"/>
+      <c r="K45" s="3">
         <v>1.6525280591835799E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>8.2001012461041495E-2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.56795018255791996</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
+      <c r="D46" s="17"/>
+      <c r="E46" s="2">
         <v>-0.176567599375207</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.20324698224280099</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="G46" s="17"/>
+      <c r="H46" s="2">
         <v>-7.5016851542810098E-2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>0.471264516547164</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4">
+      <c r="J46" s="17"/>
+      <c r="K46" s="3">
         <v>1.8233571801448099E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>3.1162248338829499E-2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.81204409232185504</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
+      <c r="D47" s="17"/>
+      <c r="E47" s="2">
         <v>-0.13697787355003199</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0.28932844010883702</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="G47" s="17"/>
+      <c r="H47" s="2">
         <v>1.50054442844885E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>0.87438447357747195</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4">
+      <c r="J47" s="17"/>
+      <c r="K47" s="3">
         <v>1.39885840346183E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>3.5731543958378603E-2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.78397300425363803</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="D48" s="17"/>
+      <c r="E48" s="2">
         <v>-0.139252917771506</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0.28329219532761102</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="G48" s="17"/>
+      <c r="H48" s="2">
         <v>-1.6656615393743301E-3</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>0.98589672526711902</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4">
+      <c r="J48" s="17"/>
+      <c r="K48" s="3">
         <v>1.3776027807686201E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>5.5185304310387803E-2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>0.67004607024709495</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="18"/>
+      <c r="E49" s="5">
         <v>-0.15237315865974199</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.23744510368226099</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
+      <c r="G49" s="18"/>
+      <c r="H49" s="5">
         <v>-9.0809168626243206E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>0.33297325829574598</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="7">
+      <c r="J49" s="18"/>
+      <c r="K49" s="6">
         <v>2.1813556961389601E-2</v>
       </c>
     </row>
@@ -4758,296 +4947,296 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>6.4798634747004299E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>0.61647626121082799</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
+      <c r="D53" s="17"/>
+      <c r="E53" s="2">
         <v>-0.18455594048920501</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0.25066480171036898</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="G53" s="17"/>
+      <c r="H53" s="2">
         <v>6.1203928789216398E-2</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>0.76396918084550602</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="J53" s="17"/>
+      <c r="K53" s="2">
         <v>-0.201867148197899</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>0.23724446428295601</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="4">
+      <c r="M53" s="17"/>
+      <c r="N53" s="3">
         <v>3.9221496359812397E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>6.1456166562291102E-2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.63478579532444102</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="D54" s="17"/>
+      <c r="E54" s="2">
         <v>-0.18614564318879601</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0.247725729697718</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="G54" s="17"/>
+      <c r="H54" s="2">
         <v>6.3052050610563806E-2</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>0.75736935732421795</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="J54" s="17"/>
+      <c r="K54" s="2">
         <v>-0.203146780590992</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>0.23388496801690301</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="4">
+      <c r="M54" s="17"/>
+      <c r="N54" s="3">
         <v>3.9392342549542998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>-1.3136748065999E-2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.92832862259891402</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
+      <c r="D55" s="17"/>
+      <c r="E55" s="2">
         <v>-3.3559307427879999E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0.81258942717273397</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="G55" s="17"/>
+      <c r="H55" s="2">
         <v>-0.19408071973153701</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>0.110093588847781</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+      <c r="J55" s="17"/>
+      <c r="K55" s="2">
         <v>0.13498283860778801</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <v>0.25426423696551598</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="4">
+      <c r="M55" s="17"/>
+      <c r="N55" s="3">
         <v>3.8398594761113597E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0.11053043523655499</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.44621444782736602</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+      <c r="D56" s="17"/>
+      <c r="E56" s="2">
         <v>-0.11963005426543601</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0.410649132845675</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="G56" s="17"/>
+      <c r="H56" s="2">
         <v>-0.14062932631019801</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>0.21047663108149001</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="2">
         <v>-7.4344666729571199E-2</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <v>0.47413666255910503</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4">
+      <c r="M56" s="17"/>
+      <c r="N56" s="3">
         <v>3.1704434583658299E-2</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>6.0309501742782497E-2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>0.64973949838737399</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
+      <c r="D57" s="17"/>
+      <c r="E57" s="2">
         <v>-8.0298663283688704E-2</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0.55609199103250295</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="G57" s="17"/>
+      <c r="H57" s="2">
         <v>-0.140975976384454</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>0.21033403380547999</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="J57" s="17"/>
+      <c r="K57" s="2">
         <v>1.45439071747315E-2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <v>0.87791247493706903</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4">
+      <c r="M57" s="17"/>
+      <c r="N57" s="3">
         <v>2.7526096031845301E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>6.4534904303452906E-2</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.62506866801767202</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
+      <c r="D58" s="17"/>
+      <c r="E58" s="2">
         <v>-8.2318305887185098E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0.54778354322443201</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="G58" s="17"/>
+      <c r="H58" s="2">
         <v>-0.14103594741762401</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>0.21019976736427801</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3">
+      <c r="J58" s="17"/>
+      <c r="K58" s="2">
         <v>-7.1038020790779497E-4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <v>0.99396985739168697</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4">
+      <c r="M58" s="17"/>
+      <c r="N58" s="3">
         <v>2.7324378511423501E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>8.4063474538678296E-2</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>0.52193347887734398</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
+      <c r="D59" s="18"/>
+      <c r="E59" s="5">
         <v>-9.5690499685369204E-2</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>0.48190662435479498</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="18"/>
+      <c r="H59" s="5">
         <v>-0.140694353887417</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>0.209422252229439</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6">
+      <c r="J59" s="18"/>
+      <c r="K59" s="5">
         <v>-9.0430426210537096E-2</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>0.33376692224923099</v>
       </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="7">
+      <c r="M59" s="18"/>
+      <c r="N59" s="6">
         <v>3.5297099169485001E-2</v>
       </c>
     </row>
@@ -5057,66 +5246,71 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>-0.161981159931637</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>8.7423858058786302E-2</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>6.6589023277633996E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>-0.27055690314936398</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>1.44386161013351E-2</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>0.21708150167753901</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>5.60639608175049E-2</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="67" spans="1:5" ht="17">
+      <c r="A67" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5128,7 +5322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141791C-34E6-4377-8BFA-B146CB0E0BD0}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -5152,348 +5348,348 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0.25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0.75</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>119</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>-7.0003347529970297E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>9.7846714248724195E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-5.1107917348641702E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-7.0797624055508003E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>4.2326903295280702E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>119</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>36529.560014773699</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>13781.3081753155</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>16592.549740046601</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>26071.302868315401</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>35496.463767952897</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>45453.746246070099</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>69393.9513858719</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>119</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3598.8321266403</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2429.3085628574399</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>708.79318554368797</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1725.01121725296</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2868.8426576559</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5085.2385475893498</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>16566.919305978499</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>119</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7.2324073245541104E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.68788583761329702</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-1.4831779052513201</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-0.246883644686166</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.7220843331611499E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.29117887424913702</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>4.2155925251388604</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>119</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.1403801706893799</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.9086253268406201</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.43273627135864901</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1.2819134694844501</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1.6078149111853799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1.9555620602247901</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>26.469233484931699</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>119</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>36497.074789915903</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>13738.8185992989</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>16678</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>26066.9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>35379.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>45497.1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>69137.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>119</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>46.537815126050397</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>22.428715672353899</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>48</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>69</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>119</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>-6.0125173646738903E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>9.7998161137437798E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-4.8022206682665103E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>119</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>-6.1166196678890897E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>9.8009479296160606E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-4.8022206682665103E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>119</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>-5.53176512783074E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>9.7738292546926703E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-4.3900889911992799E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.30712672938802799</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>119</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>-5.4981564868884702E-3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>9.7747830863079893E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>-0.35155683330952903</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>-4.3900889911992799E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>-6.5069245514486999E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>4.6316643250499299E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.30712672938802799</v>
       </c>
     </row>
@@ -5503,173 +5699,173 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-0.15593621232128699</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>9.0363385053608705E-2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2.4316102313109499E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>-0.15467489677285101</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>9.3031678504138807E-2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2.3924323691692E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>-6.0771278627827198E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.51147282114265402</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4">
+      <c r="D19" s="17"/>
+      <c r="E19" s="3">
         <v>3.6931483060609299E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>-0.11574589469633</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.21001327393067701</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
+      <c r="D20" s="17"/>
+      <c r="E20" s="3">
         <v>1.33971121390539E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>-0.15530668306127099</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>9.1687445219395494E-2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>2.4120165803493999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>2.7710795466793801E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.76482117923505</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
+      <c r="D22" s="17"/>
+      <c r="E22" s="3">
         <v>7.6788818540229897E-4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-3.97625329444979E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.66766894164414803</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="D23" s="17"/>
+      <c r="E23" s="3">
         <v>1.5810590261621201E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1.25774782776102E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.89201005024678204</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="D24" s="17"/>
+      <c r="E24" s="3">
         <v>1.5819295982322199E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>4.3467663330639004E-3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.96257911414941599</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
+      <c r="D25" s="17"/>
+      <c r="E25" s="3">
         <v>1.8894377554201599E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>-8.4876043825040798E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0.35873784056693198</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7">
+      <c r="D26" s="18"/>
+      <c r="E26" s="6">
         <v>7.2039428153902697E-3</v>
       </c>
     </row>
@@ -5679,224 +5875,224 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>-4.02802186876745E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.66403285367367504</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="17"/>
+      <c r="E30" s="2">
         <v>-0.15045011222246399</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.106555600712239</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4">
+      <c r="G30" s="17"/>
+      <c r="H30" s="3">
         <v>2.59085010363421E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1.8248763579783701E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.86202512642430995</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="17"/>
+      <c r="E31" s="2">
         <v>-0.16349485660669499</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.121354792200239</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4">
+      <c r="G31" s="17"/>
+      <c r="H31" s="3">
         <v>2.4179549372412502E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>3.6576383186525598E-2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.77461552476888196</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="17"/>
+      <c r="E32" s="2">
         <v>-0.140998776159657</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.27084068095809699</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4">
+      <c r="G32" s="17"/>
+      <c r="H32" s="3">
         <v>1.4097235923860399E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>-4.3062374930303703E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.64162068986585696</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="17"/>
+      <c r="E33" s="2">
         <v>-0.15023056936585999</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0.106235203859882</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4">
+      <c r="G33" s="17"/>
+      <c r="H33" s="3">
         <v>2.59487670078834E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>-0.102195041631617</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.34547891640623501</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="D34" s="17"/>
+      <c r="E34" s="2">
         <v>8.0378139942819005E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.45775997120613399</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4">
+      <c r="G34" s="17"/>
+      <c r="H34" s="3">
         <v>8.4378655453343204E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>-5.39027710051624E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.57710869671889498</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
+      <c r="D35" s="17"/>
+      <c r="E35" s="2">
         <v>-2.4884581674078501E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.79674489026558404</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4">
+      <c r="G35" s="17"/>
+      <c r="H35" s="3">
         <v>4.2652143141921296E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-6.54242870602081E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.48928696774713099</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
+      <c r="D36" s="17"/>
+      <c r="E36" s="2">
         <v>2.4835113429474299E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.79277803978650796</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4">
+      <c r="G36" s="17"/>
+      <c r="H36" s="3">
         <v>4.2882806776443003E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>-6.20996038805878E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.50696276779340799</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
+      <c r="D37" s="17"/>
+      <c r="E37" s="2">
         <v>1.1512123253373399E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0.90200598854877301</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4">
+      <c r="G37" s="17"/>
+      <c r="H37" s="3">
         <v>3.8239128398847E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>-5.1553972697508298E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>0.58052540703269295</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
+      <c r="D38" s="18"/>
+      <c r="E38" s="5">
         <v>-7.8849516877315798E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.39841336372500502</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7">
+      <c r="G38" s="18"/>
+      <c r="H38" s="6">
         <v>9.8254358892339005E-3</v>
       </c>
     </row>
@@ -5906,271 +6102,271 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>6.8209704638030597E-2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.59440151651938999</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D42" s="17"/>
+      <c r="E42" s="2">
         <v>-0.15562328690225899</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.22179572825075999</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="G42" s="17"/>
+      <c r="H42" s="2">
         <v>-0.158124806024312</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>9.0090394237508697E-2</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>3.8524948937875302E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>6.4413035349961498E-2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.61864204369277298</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="D43" s="17"/>
+      <c r="E43" s="2">
         <v>-8.3270720199703899E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.53920267777128195</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="G43" s="17"/>
+      <c r="H43" s="2">
         <v>-0.14005879044409</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>0.21254617756296201</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4">
+      <c r="J43" s="17"/>
+      <c r="K43" s="3">
         <v>2.7387360447076001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>6.5703386564646193E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.60738924862201804</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="D44" s="17"/>
+      <c r="E44" s="2">
         <v>-0.15617878882011699</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0.220206131168458</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="G44" s="17"/>
+      <c r="H44" s="2">
         <v>-0.15818447782032799</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>8.9252531539294702E-2</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>3.8651281394916102E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>-3.9895285259315301E-3</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.97830772755359796</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="D45" s="17"/>
+      <c r="E45" s="2">
         <v>-0.12865332357824</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0.32311554905885798</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="G45" s="17"/>
+      <c r="H45" s="2">
         <v>6.2174715134106398E-2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>0.57106698359874497</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4">
+      <c r="J45" s="17"/>
+      <c r="K45" s="3">
         <v>1.6856453607150101E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>8.3557409771930199E-2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.56030893127725501</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
+      <c r="D46" s="17"/>
+      <c r="E46" s="2">
         <v>-0.17882855491744101</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.19714049900783701</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="G46" s="17"/>
+      <c r="H46" s="2">
         <v>-7.5585794387265495E-2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>0.467783738064941</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4">
+      <c r="J46" s="17"/>
+      <c r="K46" s="3">
         <v>1.8626263094961001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>3.2428200054637799E-2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.80443467958536097</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
+      <c r="D47" s="17"/>
+      <c r="E47" s="2">
         <v>-0.13903626633438601</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0.28182948003278002</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="G47" s="17"/>
+      <c r="H47" s="2">
         <v>1.4908711077829101E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>0.87517591834897301</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4">
+      <c r="J47" s="17"/>
+      <c r="K47" s="3">
         <v>1.43096878509199E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>3.69899763912672E-2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.77638131079805395</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="D48" s="17"/>
+      <c r="E48" s="2">
         <v>-0.14130676214058999</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0.27587499349775202</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="G48" s="17"/>
+      <c r="H48" s="2">
         <v>-1.7416063302090801E-3</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>0.985249354126571</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4">
+      <c r="J48" s="17"/>
+      <c r="K48" s="3">
         <v>1.41001790931318E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>5.6570729638933399E-2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>0.66208209072311697</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="18"/>
+      <c r="E49" s="5">
         <v>-0.15454300491289399</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.23056706987322101</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
+      <c r="G49" s="18"/>
+      <c r="H49" s="5">
         <v>-9.1047412160038005E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>0.33168498043840799</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="7">
+      <c r="J49" s="18"/>
+      <c r="K49" s="6">
         <v>2.2177586944286801E-2</v>
       </c>
     </row>
@@ -6180,296 +6376,296 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="16"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>6.4474978506949998E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>0.61767802039597197</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
+      <c r="D53" s="17"/>
+      <c r="E53" s="2">
         <v>-0.18562917049509201</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0.248481661167055</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="G53" s="17"/>
+      <c r="H53" s="2">
         <v>6.2954451447290005E-2</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>0.75792279035453902</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="J53" s="17"/>
+      <c r="K53" s="2">
         <v>-0.20200048979601301</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>0.236351700609267</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="4">
+      <c r="M53" s="17"/>
+      <c r="N53" s="3">
         <v>3.9329305524157199E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>6.1125652316282898E-2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.63608752592621298</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="D54" s="17"/>
+      <c r="E54" s="2">
         <v>-0.187222170144554</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0.245554789327326</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="G54" s="17"/>
+      <c r="H54" s="2">
         <v>6.48163294072885E-2</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>0.75131026904417098</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="J54" s="17"/>
+      <c r="K54" s="2">
         <v>-0.20328497715723001</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>0.23297957462697999</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="4">
+      <c r="M54" s="17"/>
+      <c r="N54" s="3">
         <v>3.9501570000357901E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>-1.2975105165588001E-2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.92911402083956895</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
+      <c r="D55" s="17"/>
+      <c r="E55" s="2">
         <v>-3.4478182322416603E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0.80805751802892301</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="G55" s="17"/>
+      <c r="H55" s="2">
         <v>-0.19346117908410301</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>0.112440064635711</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+      <c r="J55" s="17"/>
+      <c r="K55" s="2">
         <v>0.13487901303647901</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <v>0.25471610489803997</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="4">
+      <c r="M55" s="17"/>
+      <c r="N55" s="3">
         <v>3.8440414439059399E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0.110572617725623</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.44528247923896702</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+      <c r="D56" s="17"/>
+      <c r="E56" s="2">
         <v>-0.120833150168484</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0.407051454848673</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="G56" s="17"/>
+      <c r="H56" s="2">
         <v>-0.13937007103150001</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>0.215784689993503</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="J56" s="17"/>
+      <c r="K56" s="2">
         <v>-7.4484432413548102E-2</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <v>0.47325687881092499</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4">
+      <c r="M56" s="17"/>
+      <c r="N56" s="3">
         <v>3.1785042762533099E-2</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>6.0358646721839798E-2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>0.64898429147349501</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
+      <c r="D57" s="17"/>
+      <c r="E57" s="2">
         <v>-8.1380492816938696E-2</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0.55176923799396804</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="G57" s="17"/>
+      <c r="H57" s="2">
         <v>-0.14000365764221401</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>0.214688692842044</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="J57" s="17"/>
+      <c r="K57" s="2">
         <v>1.45322283451805E-2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <v>0.87801388622840204</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4">
+      <c r="M57" s="17"/>
+      <c r="N57" s="3">
         <v>2.7589215894360902E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>6.4577199011160796E-2</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.624263383770021</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
+      <c r="D58" s="17"/>
+      <c r="E58" s="2">
         <v>-8.3397138058645806E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0.54350100089061704</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="G58" s="17"/>
+      <c r="H58" s="2">
         <v>-0.14005134293286001</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>0.21459656931358101</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3">
+      <c r="J58" s="17"/>
+      <c r="K58" s="2">
         <v>-6.9751238287565995E-4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <v>0.99407813541403101</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4">
+      <c r="M58" s="17"/>
+      <c r="N58" s="3">
         <v>2.73878324932957E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>8.4204430761059504E-2</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>0.52063492943679401</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
+      <c r="D59" s="18"/>
+      <c r="E59" s="5">
         <v>-9.6933135708314494E-2</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>0.47736846635829699</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="18"/>
+      <c r="H59" s="5">
         <v>-0.13959122536523899</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>0.21420288871419299</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6">
+      <c r="J59" s="18"/>
+      <c r="K59" s="5">
         <v>-9.0546406931461695E-2</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>0.33319435861920399</v>
       </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="7">
+      <c r="M59" s="18"/>
+      <c r="N59" s="6">
         <v>3.5378880771480603E-2</v>
       </c>
     </row>
@@ -6479,66 +6675,66 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>-0.16193562538622899</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>8.7383330758598499E-2</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>6.6595122943831506E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>-0.26944633763706299</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>1.47565840008294E-2</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>0.21669973877396501</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>5.6352512946186997E-2</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
